--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ainur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ainur\IdeaProjects\somethinNew\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UserTests" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="ResourceTests" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LoginTests!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RegisterTests!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ResourceTests!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UserTests!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LoginTests!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RegisterTests!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ResourceTests!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UserTests!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="103">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -482,6 +482,21 @@
   <si>
     <t>page=2
 per_page=5</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Blockers</t>
   </si>
 </sst>
 </file>
@@ -513,7 +528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -536,14 +551,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -554,6 +580,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,477 +874,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1314,126 +1428,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F5"/>
+  <autoFilter ref="A1:G5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,112 +1575,128 @@
     <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F5"/>
+  <autoFilter ref="A1:G5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,210 +1707,244 @@
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F11"/>
+  <autoFilter ref="A1:G11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>